--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,31 +467,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23-27</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Panorama has stopped</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,61 +467,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>23-27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Panorama has stopped</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
